--- a/desain cetak detail pekerjaan.xlsx
+++ b/desain cetak detail pekerjaan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19995" windowHeight="8130"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19995" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,19 +212,22 @@
     <t>Serah Terima (PHO)</t>
   </si>
   <si>
-    <t>Realisasi Keuangan dan Fisik</t>
-  </si>
-  <si>
     <t>Realisasi Keuangan</t>
   </si>
   <si>
     <t>Realisasi Fisik</t>
+  </si>
+  <si>
+    <t>Persentase Realisasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$Rp-421]* #,##0.00_ ;_-[$Rp-421]* \-#,##0.00\ ;_-[$Rp-421]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,9 +445,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -458,9 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -468,15 +465,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -489,6 +480,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,659 +813,649 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="19"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="19"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="19"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="19"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="19"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="27" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="19"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="28">
         <v>21422020</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="28">
         <v>0</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="19"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="24" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="23" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="19"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="A21" s="17"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="31">
+        <v>1</v>
+      </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="31">
+        <v>1</v>
+      </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="35">
-        <v>1</v>
-      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="35">
-        <v>1</v>
-      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="19"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:8" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="A28" s="17"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="11" t="s">
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="11" t="s">
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="19"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="19"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="A34" s="17"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="19"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="4" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="5" t="s">
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D36" s="6">
         <v>43573</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="19"/>
-    </row>
-    <row r="38" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="19"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="19"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="19"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="19"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>4</v>
+      <c r="A42" s="17"/>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3">
+        <v>43588</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="3">
-        <v>43588</v>
-      </c>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="19"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="19"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="A46" s="17"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="19"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="19"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>22</v>
+      <c r="A48" s="17"/>
+      <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="3">
+        <v>43467</v>
       </c>
       <c r="G48" s="9"/>
-      <c r="H48" s="19"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="3">
-        <v>43467</v>
-      </c>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="H49" s="18"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="19"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="19"/>
-    </row>
-    <row r="52" spans="1:8" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" spans="1:8" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B31:G31"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C6:G6"/>
@@ -1471,7 +1464,7 @@
   <pageMargins left="0.7" right="0.7" top="0.45" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup paperSize="129" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="26" max="16383" man="1"/>
+    <brk id="25" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
